--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\processing_multispectral_image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\multispectral-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16774CA4-CAAE-4F65-BF42-01FBE8A3F72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315E35B-C8F6-4B3E-84AE-8C493596D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
@@ -6214,8 +6214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3418417" y="1801284"/>
-          <a:ext cx="10829713" cy="14422966"/>
+          <a:off x="3418492" y="1771813"/>
+          <a:ext cx="10813950" cy="14136767"/>
           <a:chOff x="3386667" y="1830917"/>
           <a:chExt cx="10728113" cy="14689666"/>
         </a:xfrm>
@@ -7648,7 +7648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF2A900-145F-4945-9334-EA1EDD64404F}">
   <dimension ref="A1:AK54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
@@ -7951,8 +7951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72D8BD2-51AD-4E41-840F-4B7CBFDA320F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
